--- a/VSGA/jna/hari ke-1/andri/Kelompok 8 - Tugas Project 1 - Andri Firman Saputra/tugas 2/tugas 2.xlsx
+++ b/VSGA/jna/hari ke-1/andri/Kelompok 8 - Tugas Project 1 - Andri Firman Saputra/tugas 2/tugas 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pelatihan_Kominfo\VSGA\jna\hari ke-1\andri\tugas 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pelatihan_Kominfo\VSGA\jna\hari ke-1\andri\Kelompok 8 - Tugas Project 1 - Andri Firman Saputra\tugas 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39D0EF-F72F-43C1-9D3D-2A71A4DA0439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA04D6B-F4B5-41B2-A121-AEC4F0023939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ED91DD6A-B022-4091-8F58-68686108E16E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{ED91DD6A-B022-4091-8F58-68686108E16E}"/>
   </bookViews>
   <sheets>
     <sheet name="jadwal" sheetId="1" r:id="rId1"/>
@@ -899,66 +899,6 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,6 +920,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1752,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AAF0E1-52ED-4A34-86B1-BBDD0E7AB405}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
@@ -1765,148 +1765,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -1915,33 +1915,39 @@
       <c r="B17" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="75"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
     </row>
     <row r="19" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -1954,12 +1960,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D74C6-8A30-4C92-ABA6-6419A23619FB}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
